--- a/horari.xlsx
+++ b/horari.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
   <si>
     <t>Hores</t>
   </si>
@@ -37,6 +37,9 @@
     <t>x</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
 </sst>
@@ -45,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -74,6 +77,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -82,8 +93,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,100 +176,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +418,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -426,6 +438,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,56 +501,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -506,142 +509,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,7 +979,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1001,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -1014,13 +1017,31 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1028,32 +1049,59 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>11</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1063,8 +1111,14 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1075,27 +1129,36 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>15</v>
       </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" t="s">
         <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1105,8 +1168,17 @@
       <c r="A10" s="1">
         <v>16</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" t="s">
         <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1116,6 +1188,15 @@
       <c r="A11" s="1">
         <v>17</v>
       </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
@@ -1128,41 +1209,59 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>19</v>
       </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>20</v>
       </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
